--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s2_res_fix.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s2_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.95700338725285</v>
+        <v>36.59143808817635</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.2870033872534</v>
+        <v>36.59143808817635</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6264598949653521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6264598949653521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.66999999999944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -901,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.49313212343961</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37.5000066666637</v>
+        <v>32.99312545677591</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>31.95858503259002</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.62543159826637</v>
+        <v>42.28173377703811</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.27346552285658</v>
+        <v>39.11244731462912</v>
       </c>
     </row>
     <row r="10">
@@ -955,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,20 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>43.65499999999985</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>37.03499999999985</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>41.29499999999985</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>39.50999999999986</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>43.86999999999986</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>154.9200000000004</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>152.65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>157.9800000000004</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>156.3850000000004</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.7900000000004</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>199.5749999999997</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>203.555</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>184.9549999999997</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>203.485</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.7949999999997</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>158.4050000000003</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>156.8400000000007</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>147.0950000000004</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>155.8350000000007</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>158.4750000000004</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.235</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.525</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.785</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>199.5749999999997</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>203.555</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>184.9549999999997</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>203.485</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>203.7949999999997</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>154.9200000000004</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>152.65</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>157.9800000000004</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.3850000000004</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7900000000004</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42">
@@ -1585,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.555000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1607,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>3.485000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3.79499999999971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2053,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2078,39 +2053,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
